--- a/inputData.xlsx
+++ b/inputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Ric\OneDrive\Desktop\es-miles-calc-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCE666-167F-4BD0-ABC0-27ED25BA8ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5BC5CA-2C39-49CB-B5D1-964363724D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDA978CD-81C9-4B47-8D3A-830A63FBCA0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>flyingWith</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>ACC</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>One Way</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5015CE-725D-4110-91C7-7DCEB0AF3D6A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,6 +495,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inputData.xlsx
+++ b/inputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Ric\OneDrive\Desktop\es-miles-calc-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5BC5CA-2C39-49CB-B5D1-964363724D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0069E29A-082C-463A-92C7-518D3DC87B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDA978CD-81C9-4B47-8D3A-830A63FBCA0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>flyingWith</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>One Way</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>AMM</t>
   </si>
 </sst>
 </file>
@@ -439,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5015CE-725D-4110-91C7-7DCEB0AF3D6A}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,6 +533,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inputData.xlsx
+++ b/inputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Ric\OneDrive\Desktop\es-miles-calc-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0069E29A-082C-463A-92C7-518D3DC87B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F75AE4C-2BDF-4CF3-B71A-A8E0403423D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDA978CD-81C9-4B47-8D3A-830A63FBCA0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>flyingWith</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Platinum</t>
   </si>
   <si>
-    <t>Premium</t>
-  </si>
-  <si>
     <t>First</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>AMM</t>
+  </si>
+  <si>
+    <t>Premium Economy</t>
   </si>
 </sst>
 </file>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5015CE-725D-4110-91C7-7DCEB0AF3D6A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,105 +471,122 @@
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/inputData.xlsx
+++ b/inputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Ric\OneDrive\Desktop\es-miles-calc-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F75AE4C-2BDF-4CF3-B71A-A8E0403423D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07796B93-48AB-4C93-BBE5-977B65BC6230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDA978CD-81C9-4B47-8D3A-830A63FBCA0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
   <si>
     <t>flyingWith</t>
   </si>
@@ -60,18 +60,9 @@
     <t>oneWayOrRoundtrip</t>
   </si>
   <si>
-    <t>Round Trip</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>ADL</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>One Way</t>
   </si>
   <si>
-    <t>ADD</t>
-  </si>
-  <si>
     <t>Platinum</t>
   </si>
   <si>
@@ -93,10 +81,13 @@
     <t>Silver</t>
   </si>
   <si>
-    <t>AMM</t>
-  </si>
-  <si>
     <t>Premium Economy</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>ZVJ</t>
   </si>
 </sst>
 </file>
@@ -457,25 +448,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5015CE-725D-4110-91C7-7DCEB0AF3D6A}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -494,99 +485,324 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F17" t="s">
         <v>14</v>
       </c>
     </row>
